--- a/SYLLABUS.xlsx
+++ b/SYLLABUS.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaulaedu-my.sharepoint.com/personal/erika_badilloen_unaula_edu_co/Documents/1 Econometria/1 Econometria II-UNAULA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="270" documentId="8_{F72F8ED6-0950-4AB6-8B90-A582C5DDD90A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9F5FBBE6-5C12-4796-8BA0-BD562FE3524E}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{B915E61C-DF79-4BCF-9662-E8343A4A00E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{582D500E-415A-4D03-818E-50610464381F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20280" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTIVO" sheetId="2" r:id="rId1"/>
     <sheet name="SYLLABUS" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="124">
   <si>
     <t>Programa Académico</t>
   </si>
@@ -472,10 +472,6 @@
     <t>ERIKA BADILLO</t>
   </si>
   <si>
-    <t>El curso de Econometría II ofrece una gran variedad de herramientas prácticas que le permiten al economista brindar explicaciones a distintos fenómenos económicos y facilita la toma de decisiones. Este curso constituye una parte esencial en la formación y profundización matemática y estadística de los economistas, ya que en él se presentan los aspectos formales, así como la aplicación de éstos sobre los principios generales de la economía, en especial la aplicación de los modelos de regresión múltiple los campos de la macroeconometría y la microeconometría.
-La vinculación entre la teoría económica y econométrica con la evolución del mercado y sus derivados se ha ido intensificando en años recientes, debido a la invaluable opinión de los economistas sobre la explicación de los fenómenos económicos. Como consecuencia de la complejidad con que avanza el mercado, los economistas, cada vez más necesitan de herramientas estadísticas que permitan vislumbrar y comprobar las principales hipótesis de dichos fenómenos.</t>
-  </si>
-  <si>
     <t>Especificación
 Estimación MCO
 Propiedades de los estimadores MCO
@@ -485,6 +481,13 @@
     <t>3.10. Referencias
 - Gujarati, D. &amp; Porter, D. (2010). 5a Edición. Econometría. Mc Graw Hill.
 - Wooldridge, J. (2013). Introducción a la Econometría. 5a Edición, Cengage Learning</t>
+  </si>
+  <si>
+    <t>El curso de Econometría II ofrece una gran variedad de herramientas prácticas que le permiten al economista brindar explicaciones a distintos fenómenos económicos y facilita la toma de decisiones. Este curso constituye una parte esencial en la formación y profundización matemática y estadística de los economistas, ya que en él se presentan los aspectos formales, así como la aplicación de éstos sobre los principios generales de la economía, en especial la aplicación de los modelos de regresión múltiple en los campos de la macroeconometría y la microeconometría.
+La vinculación entre la teoría económica y econométrica con la evolución del mercado y sus derivados se ha ido intensificando en años recientes, debido a la invaluable opinión de los economistas sobre la explicación de los fenómenos económicos. Como consecuencia de la complejidad con que avanza el mercado, los economistas, cada vez más necesitan de herramientas estadísticas que permitan vislumbrar y comprobar las principales hipótesis de dichos fenómenos.</t>
+  </si>
+  <si>
+    <t>Aplica la teoría y la práctica del Método de Mínimos Cuadrados Ordinarios (MCO) básico para estimar, interpretar y evaluar modelos de regresión lineal simple</t>
   </si>
 </sst>
 </file>
@@ -1130,6 +1133,78 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
@@ -1139,15 +1214,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -1166,72 +1232,66 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1271,21 +1331,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1330,51 +1378,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1806,26 +1809,26 @@
       <selection activeCell="B36" sqref="B36:K36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.81640625" customWidth="1"/>
-    <col min="11" max="11" width="30.1796875" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" customWidth="1"/>
+    <col min="11" max="11" width="30.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="57" t="s">
+    <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1833,15 +1836,15 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="8" t="s">
         <v>68</v>
       </c>
@@ -1849,15 +1852,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+    <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>44449</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="16"/>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1877,7 +1880,7 @@
       <c r="J9" s="10"/>
       <c r="K9" s="11"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>45</v>
       </c>
@@ -1891,7 +1894,7 @@
       <c r="J10" s="13"/>
       <c r="K10" s="14"/>
     </row>
-    <row r="11" spans="2:11" ht="76" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:11" ht="75.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="42" t="s">
         <v>47</v>
       </c>
@@ -1905,7 +1908,7 @@
       <c r="J11" s="43"/>
       <c r="K11" s="44"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
         <v>46</v>
       </c>
@@ -1919,7 +1922,7 @@
       <c r="J12" s="13"/>
       <c r="K12" s="14"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
         <v>10</v>
       </c>
@@ -1933,21 +1936,21 @@
       <c r="J13" s="13"/>
       <c r="K13" s="14"/>
     </row>
-    <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="45" t="s">
+    <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
         <v>12</v>
       </c>
@@ -1961,7 +1964,7 @@
       <c r="J15" s="13"/>
       <c r="K15" s="14"/>
     </row>
-    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
       <c r="D16" s="18"/>
@@ -1973,63 +1976,63 @@
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
     </row>
-    <row r="17" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="48" t="s">
+    <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B18" s="51" t="s">
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B19" s="64" t="s">
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="74"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="66"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B20" s="64" t="s">
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="66"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
         <v>15</v>
       </c>
@@ -2043,7 +2046,7 @@
       <c r="J21" s="43"/>
       <c r="K21" s="44"/>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="42" t="s">
         <v>50</v>
       </c>
@@ -2057,7 +2060,7 @@
       <c r="J22" s="43"/>
       <c r="K22" s="44"/>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="42" t="s">
         <v>52</v>
       </c>
@@ -2071,21 +2074,21 @@
       <c r="J23" s="43"/>
       <c r="K23" s="44"/>
     </row>
-    <row r="24" spans="2:11" s="20" customFormat="1" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="73" t="s">
+    <row r="24" spans="2:11" s="20" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75"/>
-    </row>
-    <row r="25" spans="2:11" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
+    </row>
+    <row r="25" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
         <v>62</v>
       </c>
@@ -2099,7 +2102,7 @@
       <c r="J25" s="43"/>
       <c r="K25" s="44"/>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="42" t="s">
         <v>53</v>
       </c>
@@ -2113,77 +2116,77 @@
       <c r="J26" s="43"/>
       <c r="K26" s="44"/>
     </row>
-    <row r="27" spans="2:11" ht="17.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="76" t="s">
+    <row r="27" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
-    </row>
-    <row r="28" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="48" t="s">
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
+    </row>
+    <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
-    </row>
-    <row r="29" spans="2:11" ht="55" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="67" t="s">
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
+    </row>
+    <row r="29" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
-    </row>
-    <row r="30" spans="2:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="54" t="s">
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
+    </row>
+    <row r="30" spans="2:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
-    </row>
-    <row r="31" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="61" t="s">
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+    </row>
+    <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="63"/>
-    </row>
-    <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="59"/>
+    </row>
+    <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
         <v>39</v>
       </c>
@@ -2197,21 +2200,21 @@
       <c r="J32" s="22"/>
       <c r="K32" s="23"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B33" s="64" t="s">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="66"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
         <v>56</v>
       </c>
@@ -2225,7 +2228,7 @@
       <c r="J34" s="43"/>
       <c r="K34" s="44"/>
     </row>
-    <row r="35" spans="2:11" ht="26.15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:11" ht="26.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="42" t="s">
         <v>57</v>
       </c>
@@ -2239,21 +2242,21 @@
       <c r="J35" s="43"/>
       <c r="K35" s="44"/>
     </row>
-    <row r="36" spans="2:11" ht="32.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="58" t="s">
+    <row r="36" spans="2:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="60"/>
-    </row>
-    <row r="37" spans="2:11" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="56"/>
+    </row>
+    <row r="37" spans="2:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
         <v>59</v>
       </c>
@@ -2267,7 +2270,7 @@
       <c r="J37" s="43"/>
       <c r="K37" s="44"/>
     </row>
-    <row r="38" spans="2:11" ht="30.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:11" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B38" s="42" t="s">
         <v>41</v>
       </c>
@@ -2281,7 +2284,7 @@
       <c r="J38" s="43"/>
       <c r="K38" s="44"/>
     </row>
-    <row r="39" spans="2:11" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:11" ht="29.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B39" s="42" t="s">
         <v>60</v>
       </c>
@@ -2295,7 +2298,7 @@
       <c r="J39" s="43"/>
       <c r="K39" s="44"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B40" s="42" t="s">
         <v>42</v>
       </c>
@@ -2309,29 +2312,27 @@
       <c r="J40" s="43"/>
       <c r="K40" s="44"/>
     </row>
-    <row r="41" spans="2:11" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B41" s="70" t="s">
+    <row r="41" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="72"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B30:K30"/>
     <mergeCell ref="D6:I8"/>
     <mergeCell ref="B6:C8"/>
     <mergeCell ref="B34:K34"/>
@@ -2348,11 +2349,13 @@
     <mergeCell ref="B22:K22"/>
     <mergeCell ref="B25:K25"/>
     <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2363,31 +2366,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView tabSelected="1" topLeftCell="G28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.453125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="6.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="5" style="1" customWidth="1"/>
     <col min="4" max="4" width="50" style="25" customWidth="1"/>
-    <col min="5" max="13" width="32.453125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.81640625" style="1"/>
+    <col min="5" max="13" width="32.42578125" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="79"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="99" t="s">
+    <row r="1" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="101"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="37" t="s">
         <v>66</v>
       </c>
@@ -2395,15 +2398,15 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+    <row r="2" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="39" t="s">
         <v>68</v>
       </c>
@@ -2411,68 +2414,68 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="28" customFormat="1" ht="29.15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
+    <row r="3" spans="1:13" s="28" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="39" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="41">
-        <v>45866</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" s="112" t="s">
+        <v>46024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="92" t="s">
+    <row r="6" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="95"/>
-    </row>
-    <row r="7" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="92" t="s">
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="83"/>
+    </row>
+    <row r="7" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="95"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="32" t="s">
         <v>18</v>
       </c>
@@ -2480,32 +2483,32 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="92" t="s">
+    <row r="8" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="82" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="95"/>
-    </row>
-    <row r="9" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="92" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="83"/>
+    </row>
+    <row r="9" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="94">
+      <c r="B9" s="79"/>
+      <c r="C9" s="82">
         <v>3</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="95"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="32" t="s">
         <v>21</v>
       </c>
@@ -2515,41 +2518,41 @@
       <c r="H9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="82">
         <v>80</v>
       </c>
-      <c r="J9" s="95"/>
-    </row>
-    <row r="10" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="97" t="s">
+      <c r="J9" s="83"/>
+    </row>
+    <row r="10" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="113"/>
+      <c r="C10" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="95"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="83"/>
       <c r="H10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="94" t="s">
+      <c r="I10" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="95"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="5"/>
     </row>
-    <row r="11" spans="1:13" s="27" customFormat="1" ht="36.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="124" t="s">
+    <row r="11" spans="1:13" s="27" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="109"/>
+      <c r="D11" s="124"/>
       <c r="E11" s="35" t="s">
         <v>73</v>
       </c>
@@ -2562,86 +2565,86 @@
       <c r="H11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
-    </row>
-    <row r="12" spans="1:13" ht="60.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="118" t="s">
+      <c r="I11" s="125"/>
+      <c r="J11" s="126"/>
+    </row>
+    <row r="12" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="93" t="s">
         <v>109</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="122">
+      <c r="I12" s="96">
         <v>0.4</v>
       </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="97"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="88" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="92.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="89" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
+    <row r="14" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="108" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="92" t="s">
+    <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93" t="s">
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="1:13" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -2656,24 +2659,24 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" s="88" t="s">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="4"/>
@@ -2688,68 +2691,68 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="78" t="s">
+    <row r="19" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="117"/>
-      <c r="G19" s="78" t="s">
+      <c r="F19" s="90"/>
+      <c r="G19" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="78" t="s">
+      <c r="I19" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="78" t="s">
+      <c r="J19" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="78" t="s">
+      <c r="K19" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="78" t="s">
+      <c r="L19" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="78" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" s="30" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="M19" s="91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="30" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
-    </row>
-    <row r="21" spans="1:13" s="30" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="126" t="s">
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
+    </row>
+    <row r="21" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="78" t="s">
         <v>79</v>
       </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="126"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>74</v>
@@ -2757,7 +2760,9 @@
       <c r="F21" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="G21" s="29"/>
+      <c r="G21" s="29" t="s">
+        <v>123</v>
+      </c>
       <c r="H21" s="29" t="s">
         <v>106</v>
       </c>
@@ -2777,12 +2782,12 @@
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:13" s="30" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="126" t="s">
+    <row r="22" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="29" t="s">
         <v>82</v>
       </c>
@@ -2814,12 +2819,12 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="30" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="126" t="s">
+    <row r="23" spans="1:13" s="30" customFormat="1" ht="314.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="29" t="s">
         <v>84</v>
       </c>
@@ -2851,12 +2856,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:13" s="30" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="126" t="s">
+    <row r="24" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="78" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="29" t="s">
         <v>86</v>
       </c>
@@ -2888,12 +2893,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="30" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="126" t="s">
+    <row r="25" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="78" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="29" t="s">
         <v>88</v>
       </c>
@@ -2925,12 +2930,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="30" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="126" t="s">
+    <row r="26" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="78" t="s">
         <v>89</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="29" t="s">
         <v>90</v>
       </c>
@@ -2962,12 +2967,12 @@
         <v>94</v>
       </c>
     </row>
-    <row r="27" spans="1:13" s="30" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="126" t="s">
+    <row r="27" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="29" t="s">
         <v>104</v>
       </c>
@@ -2999,12 +3004,12 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:13" s="30" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="126" t="s">
+    <row r="28" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="78" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="126"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="29" t="s">
         <v>103</v>
       </c>
@@ -3036,12 +3041,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:13" s="30" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="126" t="s">
+    <row r="29" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="29" t="s">
         <v>102</v>
       </c>
@@ -3073,12 +3078,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:13" s="30" customFormat="1" ht="145" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="126" t="s">
+    <row r="30" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="29" t="s">
         <v>118</v>
       </c>
@@ -3110,43 +3115,43 @@
         <v>108</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="115" t="s">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116" t="s">
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89" t="s">
         <v>119</v>
       </c>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E1:H3"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="D31:J31"/>
@@ -3163,22 +3168,22 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E1:H3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SYLLABUS.xlsx
+++ b/SYLLABUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaulaedu-my.sharepoint.com/personal/erika_badilloen_unaula_edu_co/Documents/1 Econometria/1 Econometria II-UNAULA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{B915E61C-DF79-4BCF-9662-E8343A4A00E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{582D500E-415A-4D03-818E-50610464381F}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{B915E61C-DF79-4BCF-9662-E8343A4A00E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C94EBB-165B-4132-AC86-B13E1F0FBA4F}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,13 +299,7 @@
     <t>¿Cuáles son las técnicas econometricas más usadas en el trabajo empirico en economía?</t>
   </si>
   <si>
-    <t>Repaso de MCO</t>
-  </si>
-  <si>
     <t>ERIKA RAQUEL BADILLO ENCISO</t>
-  </si>
-  <si>
-    <t>Autocorrelación</t>
   </si>
   <si>
     <t>Naturaleza del problema
@@ -314,9 +308,6 @@
 Detección de la autocorrelación
 Corrección de la autocorrelación
 Ejercicio aplicado</t>
-  </si>
-  <si>
-    <t>Introducción a Series de Tiempo</t>
   </si>
   <si>
     <t>Naturaleza de los datos de series de tiempo
@@ -333,14 +324,8 @@
 Ejercicio aplicado</t>
   </si>
   <si>
-    <t>Modelos ARIMA y pronósticos</t>
-  </si>
-  <si>
     <t>Introducción
 Metododología de Box Jenkins</t>
-  </si>
-  <si>
-    <t>Modelos de series de tiempo con variables exógenas</t>
   </si>
   <si>
     <t>Modelos de rezagos distribuidos
@@ -350,9 +335,6 @@
 Ejercicio aplicado</t>
   </si>
   <si>
-    <t>Introducción a modelos VAR</t>
-  </si>
-  <si>
     <t>Introducción
 Especificación y estimación
 Diagnóstico, causalidad, predicción y análisis impulso respuesta
@@ -379,17 +361,8 @@
 Wooldridge, cap. 18</t>
   </si>
   <si>
-    <t>Variables instrumentales</t>
-  </si>
-  <si>
-    <t>Modelos de ecuaciones simultáneas</t>
-  </si>
-  <si>
     <t>Wooldridge, cap. 15
 Gujarati &amp; Porter, cap. 13</t>
-  </si>
-  <si>
-    <t>Modelos de Elección Discreta</t>
   </si>
   <si>
     <t>Wooldridge, cap. 15
@@ -419,9 +392,6 @@
 Mínimos cuadrados en dos etapas
 Pruebas de endogeneidad y pruebas de restricciones de sobreidentificación
 Ejercicio aplicado</t>
-  </si>
-  <si>
-    <t>Introducción a la modelación con datos panel</t>
   </si>
   <si>
     <t>Presentación magistral por parte del docente y  trabajo independiente de los estudiantes</t>
@@ -488,6 +458,36 @@
   </si>
   <si>
     <t>Aplica la teoría y la práctica del Método de Mínimos Cuadrados Ordinarios (MCO) básico para estimar, interpretar y evaluar modelos de regresión lineal simple</t>
+  </si>
+  <si>
+    <t>1. Repaso de MCO</t>
+  </si>
+  <si>
+    <t>2. Autocorrelación</t>
+  </si>
+  <si>
+    <t>3. Introducción a Series de Tiempo</t>
+  </si>
+  <si>
+    <t>4. Modelos ARIMA y pronósticos</t>
+  </si>
+  <si>
+    <t>5. Modelos de series de tiempo con variables exógenas</t>
+  </si>
+  <si>
+    <t>6. Introducción a modelos VAR</t>
+  </si>
+  <si>
+    <t>7. Variables instrumentales</t>
+  </si>
+  <si>
+    <t>8. Modelos de ecuaciones simultáneas</t>
+  </si>
+  <si>
+    <t>9. Modelos de Elección Discreta</t>
+  </si>
+  <si>
+    <t>10. Introducción a la modelación con datos panel</t>
   </si>
 </sst>
 </file>
@@ -1133,6 +1133,81 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
@@ -1157,227 +1232,152 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1817,18 +1817,18 @@
   <sheetData>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="57"/>
+      <c r="D6" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
       <c r="J6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1837,14 +1837,14 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
       <c r="J7" s="8" t="s">
         <v>68</v>
       </c>
@@ -1853,14 +1853,14 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
       <c r="J8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1937,18 +1937,18 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="71"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+      <c r="J14" s="46"/>
+      <c r="K14" s="47"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -1977,60 +1977,60 @@
       <c r="K16" s="19"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="63" t="s">
+      <c r="B17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="64"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="64"/>
-      <c r="I17" s="64"/>
-      <c r="J17" s="64"/>
-      <c r="K17" s="65"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="50"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="73"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="73"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="73"/>
-      <c r="I18" s="73"/>
-      <c r="J18" s="73"/>
-      <c r="K18" s="74"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="53"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="61"/>
-      <c r="K19" s="62"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="66"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="60" t="s">
+      <c r="B20" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
-      <c r="F20" s="61"/>
-      <c r="G20" s="61"/>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
-      <c r="J20" s="61"/>
-      <c r="K20" s="62"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="65"/>
+      <c r="K20" s="66"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
@@ -2075,18 +2075,18 @@
       <c r="K23" s="44"/>
     </row>
     <row r="24" spans="2:11" s="20" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="49"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
-      <c r="K24" s="50"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="74"/>
+      <c r="E24" s="74"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
+      <c r="I24" s="74"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75"/>
     </row>
     <row r="25" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
@@ -2117,74 +2117,74 @@
       <c r="K26" s="44"/>
     </row>
     <row r="27" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="52"/>
-      <c r="D27" s="52"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="52"/>
-      <c r="K27" s="52"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="77"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="77"/>
+      <c r="G27" s="77"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="77"/>
+      <c r="J27" s="77"/>
+      <c r="K27" s="77"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="63" t="s">
+      <c r="B28" s="48" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="65"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="50"/>
     </row>
     <row r="29" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="67" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="68"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="68"/>
+      <c r="G29" s="68"/>
+      <c r="H29" s="68"/>
+      <c r="I29" s="68"/>
+      <c r="J29" s="68"/>
+      <c r="K29" s="69"/>
     </row>
     <row r="30" spans="2:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="75" t="s">
+      <c r="B30" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="56"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="57" t="s">
+      <c r="B31" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="59"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="63"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
@@ -2201,18 +2201,18 @@
       <c r="K32" s="23"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="61"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
-      <c r="J33" s="61"/>
-      <c r="K33" s="62"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65"/>
+      <c r="I33" s="65"/>
+      <c r="J33" s="65"/>
+      <c r="K33" s="66"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
@@ -2243,18 +2243,18 @@
       <c r="K35" s="44"/>
     </row>
     <row r="36" spans="2:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="54" t="s">
+      <c r="B36" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="55"/>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="56"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
+      <c r="J36" s="59"/>
+      <c r="K36" s="60"/>
     </row>
     <row r="37" spans="2:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
@@ -2313,26 +2313,28 @@
       <c r="K40" s="44"/>
     </row>
     <row r="41" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="45" t="s">
+      <c r="B41" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="46"/>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-      <c r="I41" s="46"/>
-      <c r="J41" s="46"/>
-      <c r="K41" s="47"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="71"/>
+      <c r="H41" s="71"/>
+      <c r="I41" s="71"/>
+      <c r="J41" s="71"/>
+      <c r="K41" s="72"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
     <mergeCell ref="D6:I8"/>
     <mergeCell ref="B6:C8"/>
     <mergeCell ref="B34:K34"/>
@@ -2349,13 +2351,11 @@
     <mergeCell ref="B22:K22"/>
     <mergeCell ref="B25:K25"/>
     <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B30:K30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2366,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,16 +2381,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="98"/>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="100"/>
-      <c r="E1" s="114" t="s">
+      <c r="A1" s="79"/>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="116"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="101"/>
       <c r="I1" s="37" t="s">
         <v>66</v>
       </c>
@@ -2399,14 +2399,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="117"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="119"/>
+      <c r="A2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="83"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="103"/>
+      <c r="H2" s="104"/>
       <c r="I2" s="39" t="s">
         <v>68</v>
       </c>
@@ -2415,14 +2415,14 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="28" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105"/>
-      <c r="C3" s="105"/>
-      <c r="D3" s="106"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="122"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="86"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="105"/>
+      <c r="F3" s="106"/>
+      <c r="G3" s="106"/>
+      <c r="H3" s="107"/>
       <c r="I3" s="39" t="s">
         <v>5</v>
       </c>
@@ -2431,51 +2431,51 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="113"/>
+      <c r="H5" s="113"/>
+      <c r="I5" s="113"/>
+      <c r="J5" s="114"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="79" t="s">
+      <c r="A6" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="79"/>
-      <c r="C6" s="82" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="94" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="84"/>
-      <c r="E6" s="84"/>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="84"/>
-      <c r="I6" s="84"/>
-      <c r="J6" s="83"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="96"/>
+      <c r="H6" s="96"/>
+      <c r="I6" s="96"/>
+      <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="79" t="s">
+      <c r="A7" s="92" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="79"/>
-      <c r="C7" s="82" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="94" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="83"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="96"/>
+      <c r="F7" s="96"/>
+      <c r="G7" s="96"/>
+      <c r="H7" s="95"/>
       <c r="I7" s="32" t="s">
         <v>18</v>
       </c>
@@ -2484,31 +2484,31 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="79" t="s">
+      <c r="A8" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="79"/>
-      <c r="C8" s="82" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="F8" s="84"/>
-      <c r="G8" s="84"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
-      <c r="J8" s="83"/>
+      <c r="B8" s="92"/>
+      <c r="C8" s="94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
+      <c r="H8" s="96"/>
+      <c r="I8" s="96"/>
+      <c r="J8" s="95"/>
     </row>
     <row r="9" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="79" t="s">
+      <c r="A9" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="79"/>
-      <c r="C9" s="82">
+      <c r="B9" s="92"/>
+      <c r="C9" s="94">
         <v>3</v>
       </c>
-      <c r="D9" s="84"/>
-      <c r="E9" s="83"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="95"/>
       <c r="F9" s="32" t="s">
         <v>21</v>
       </c>
@@ -2518,41 +2518,41 @@
       <c r="H9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="82">
+      <c r="I9" s="94">
         <v>80</v>
       </c>
-      <c r="J9" s="83"/>
+      <c r="J9" s="95"/>
     </row>
     <row r="10" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="112" t="s">
+      <c r="A10" s="97" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="113"/>
-      <c r="C10" s="82" t="s">
+      <c r="B10" s="98"/>
+      <c r="C10" s="94" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="84"/>
-      <c r="E10" s="84"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="83"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="96"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="95"/>
       <c r="H10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="82" t="s">
+      <c r="I10" s="94" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="83"/>
+      <c r="J10" s="95"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" s="27" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="80" t="s">
+      <c r="A11" s="124" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="123" t="s">
+      <c r="B11" s="125"/>
+      <c r="C11" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="124"/>
+      <c r="D11" s="109"/>
       <c r="E11" s="35" t="s">
         <v>73</v>
       </c>
@@ -2565,81 +2565,81 @@
       <c r="H11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="125"/>
-      <c r="J11" s="126"/>
+      <c r="I11" s="110"/>
+      <c r="J11" s="111"/>
     </row>
     <row r="12" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="92" t="s">
+      <c r="A12" s="118" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="95"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="119" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="120"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="120"/>
+      <c r="G12" s="121"/>
       <c r="H12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="96">
+      <c r="I12" s="122">
         <v>0.4</v>
       </c>
-      <c r="J12" s="97"/>
+      <c r="J12" s="123"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="88" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="107"/>
-      <c r="C13" s="107"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="107"/>
-      <c r="G13" s="107"/>
-      <c r="H13" s="107"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="107"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="88"/>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="108" t="s">
-        <v>122</v>
-      </c>
-      <c r="B14" s="109"/>
-      <c r="C14" s="109"/>
-      <c r="D14" s="109"/>
-      <c r="E14" s="109"/>
-      <c r="F14" s="109"/>
-      <c r="G14" s="109"/>
-      <c r="H14" s="109"/>
-      <c r="I14" s="109"/>
-      <c r="J14" s="110"/>
+      <c r="A14" s="89" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="90"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="91"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="79" t="s">
+      <c r="A15" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="79"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="111" t="s">
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="93" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="111"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="93"/>
+      <c r="I15" s="93"/>
+      <c r="J15" s="93"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2660,18 +2660,18 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="107" t="s">
+      <c r="A17" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="107"/>
-      <c r="C17" s="107"/>
-      <c r="D17" s="107"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="107"/>
-      <c r="H17" s="107"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="88"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="88"/>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2692,67 +2692,67 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="91" t="s">
+      <c r="A19" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="91"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="91" t="s">
+      <c r="B19" s="78"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="90" t="s">
+      <c r="E19" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="90"/>
-      <c r="G19" s="91" t="s">
+      <c r="F19" s="117"/>
+      <c r="G19" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="91" t="s">
+      <c r="H19" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="91" t="s">
+      <c r="I19" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="91" t="s">
+      <c r="J19" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="91" t="s">
+      <c r="K19" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="91" t="s">
+      <c r="L19" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="91" t="s">
-        <v>121</v>
+      <c r="M19" s="78" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="30" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="91"/>
-      <c r="B20" s="91"/>
-      <c r="C20" s="91"/>
-      <c r="D20" s="91"/>
+      <c r="A20" s="78"/>
+      <c r="B20" s="78"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="78"/>
       <c r="E20" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="91"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="91"/>
-      <c r="J20" s="91"/>
-      <c r="K20" s="91"/>
-      <c r="L20" s="91"/>
-      <c r="M20" s="91"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="78"/>
+      <c r="I20" s="78"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
+      <c r="L20" s="78"/>
+      <c r="M20" s="78"/>
     </row>
     <row r="21" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
+      <c r="A21" s="126" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="126"/>
+      <c r="C21" s="126"/>
       <c r="D21" s="29" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>74</v>
@@ -2761,35 +2761,35 @@
         <v>75</v>
       </c>
       <c r="G21" s="29" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="H21" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K21" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I21" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="29" t="s">
+      <c r="L21" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="K21" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="L21" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="M21" s="29" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="78" t="s">
-        <v>81</v>
-      </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
       <c r="D22" s="29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="29" t="s">
         <v>74</v>
@@ -2798,35 +2798,35 @@
         <v>75</v>
       </c>
       <c r="G22" s="29" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="H22" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I22" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K22" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I22" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J22" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K22" s="29" t="s">
+      <c r="L22" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" s="30" customFormat="1" ht="314.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="126" t="s">
         <v>116</v>
       </c>
-      <c r="L22" s="29" t="s">
-        <v>117</v>
-      </c>
-      <c r="M22" s="29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" s="30" customFormat="1" ht="314.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="78" t="s">
-        <v>83</v>
-      </c>
-      <c r="B23" s="78"/>
-      <c r="C23" s="78"/>
+      <c r="B23" s="126"/>
+      <c r="C23" s="126"/>
       <c r="D23" s="29" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>74</v>
@@ -2835,35 +2835,35 @@
         <v>75</v>
       </c>
       <c r="G23" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H23" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I23" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K23" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I23" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J23" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="L23" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="126" t="s">
         <v>117</v>
       </c>
-      <c r="M23" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="78" t="s">
-        <v>85</v>
-      </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
+      <c r="B24" s="126"/>
+      <c r="C24" s="126"/>
       <c r="D24" s="29" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E24" s="29" t="s">
         <v>74</v>
@@ -2872,35 +2872,35 @@
         <v>75</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H24" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J24" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K24" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I24" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J24" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="L24" s="29" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M24" s="29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="78" t="s">
-        <v>87</v>
-      </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
+      <c r="A25" s="126" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
       <c r="D25" s="29" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E25" s="29" t="s">
         <v>74</v>
@@ -2909,35 +2909,35 @@
         <v>75</v>
       </c>
       <c r="G25" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H25" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J25" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K25" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I25" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J25" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="L25" s="29" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M25" s="29" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="26" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
+      <c r="A26" s="126" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="126"/>
+      <c r="C26" s="126"/>
       <c r="D26" s="29" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E26" s="29" t="s">
         <v>74</v>
@@ -2946,35 +2946,35 @@
         <v>75</v>
       </c>
       <c r="G26" s="29" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="H26" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J26" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I26" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J26" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="L26" s="29" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M26" s="29" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="78" t="s">
-        <v>96</v>
-      </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
+      <c r="A27" s="126" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="126"/>
+      <c r="C27" s="126"/>
       <c r="D27" s="29" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E27" s="29" t="s">
         <v>74</v>
@@ -2983,35 +2983,35 @@
         <v>75</v>
       </c>
       <c r="G27" s="29" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H27" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J27" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I27" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J27" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K27" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="L27" s="29" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M27" s="29" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="78" t="s">
-        <v>97</v>
-      </c>
-      <c r="B28" s="78"/>
-      <c r="C28" s="78"/>
+      <c r="A28" s="126" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="126"/>
+      <c r="C28" s="126"/>
       <c r="D28" s="29" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E28" s="29" t="s">
         <v>74</v>
@@ -3020,35 +3020,35 @@
         <v>75</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="H28" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I28" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J28" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K28" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I28" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J28" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K28" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="L28" s="29" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M28" s="29" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="78" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="78"/>
-      <c r="C29" s="78"/>
+      <c r="A29" s="126" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="126"/>
+      <c r="C29" s="126"/>
       <c r="D29" s="29" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E29" s="29" t="s">
         <v>74</v>
@@ -3057,35 +3057,35 @@
         <v>75</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="H29" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I29" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="I29" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J29" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K29" s="29" t="s">
-        <v>116</v>
-      </c>
       <c r="L29" s="29" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="M29" s="29" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="B30" s="78"/>
-      <c r="C30" s="78"/>
+      <c r="A30" s="126" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" s="126"/>
+      <c r="C30" s="126"/>
       <c r="D30" s="29" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E30" s="29" t="s">
         <v>74</v>
@@ -3094,48 +3094,80 @@
         <v>75</v>
       </c>
       <c r="G30" s="29" t="s">
+        <v>97</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="I30" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="J30" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K30" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="H30" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="J30" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="K30" s="29" t="s">
-        <v>116</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>117</v>
-      </c>
       <c r="M30" s="29" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="88" t="s">
+      <c r="A31" s="115" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="88"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="89" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="89"/>
-      <c r="F31" s="89"/>
-      <c r="G31" s="89"/>
-      <c r="H31" s="89"/>
-      <c r="I31" s="89"/>
-      <c r="J31" s="89"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="116" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="116"/>
+      <c r="F31" s="116"/>
+      <c r="G31" s="116"/>
+      <c r="H31" s="116"/>
+      <c r="I31" s="116"/>
+      <c r="J31" s="116"/>
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="48">
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:J31"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="H19:H20"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="J19:J20"/>
+    <mergeCell ref="A19:C20"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C12:G12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="C8:J8"/>
     <mergeCell ref="K19:K20"/>
     <mergeCell ref="L19:L20"/>
     <mergeCell ref="M19:M20"/>
@@ -3152,38 +3184,6 @@
     <mergeCell ref="E1:H3"/>
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="I11:J11"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:J31"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="H19:H20"/>
-    <mergeCell ref="I19:I20"/>
-    <mergeCell ref="J19:J20"/>
-    <mergeCell ref="A19:C20"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C12:G12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C8:J8"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/SYLLABUS.xlsx
+++ b/SYLLABUS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unaulaedu-my.sharepoint.com/personal/erika_badilloen_unaula_edu_co/Documents/1 Econometria/1 Econometria II-UNAULA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{B915E61C-DF79-4BCF-9662-E8343A4A00E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F3C94EBB-165B-4132-AC86-B13E1F0FBA4F}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="8_{B915E61C-DF79-4BCF-9662-E8343A4A00E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E242BB24-E951-4278-9040-A226B8C2E44D}"/>
   <bookViews>
     <workbookView xWindow="20280" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="INSTRUCTIVO" sheetId="2" r:id="rId1"/>
     <sheet name="SYLLABUS" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1133,6 +1133,78 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
@@ -1142,15 +1214,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
@@ -1169,72 +1232,66 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1274,21 +1331,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1333,51 +1378,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1817,18 +1817,18 @@
   <sheetData>
     <row r="5" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="53" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="6" t="s">
         <v>66</v>
       </c>
@@ -1837,14 +1837,14 @@
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="8" t="s">
         <v>68</v>
       </c>
@@ -1853,14 +1853,14 @@
       </c>
     </row>
     <row r="8" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
       <c r="J8" s="8" t="s">
         <v>5</v>
       </c>
@@ -1937,18 +1937,18 @@
       <c r="K13" s="14"/>
     </row>
     <row r="14" spans="2:11" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="45" t="s">
+      <c r="B14" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="47"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="71"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="16" t="s">
@@ -1977,60 +1977,60 @@
       <c r="K16" s="19"/>
     </row>
     <row r="17" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="50"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="64"/>
+      <c r="G17" s="64"/>
+      <c r="H17" s="64"/>
+      <c r="I17" s="64"/>
+      <c r="J17" s="64"/>
+      <c r="K17" s="65"/>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
+      <c r="B18" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="53"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="73"/>
+      <c r="K18" s="74"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
-      <c r="H19" s="65"/>
-      <c r="I19" s="65"/>
-      <c r="J19" s="65"/>
-      <c r="K19" s="66"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="61"/>
+      <c r="G19" s="61"/>
+      <c r="H19" s="61"/>
+      <c r="I19" s="61"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="62"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
-      <c r="H20" s="65"/>
-      <c r="I20" s="65"/>
-      <c r="J20" s="65"/>
-      <c r="K20" s="66"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="61"/>
+      <c r="G20" s="61"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="62"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="42" t="s">
@@ -2075,18 +2075,18 @@
       <c r="K23" s="44"/>
     </row>
     <row r="24" spans="2:11" s="20" customFormat="1" ht="30.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="73" t="s">
+      <c r="B24" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="74"/>
-      <c r="D24" s="74"/>
-      <c r="E24" s="74"/>
-      <c r="F24" s="74"/>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
-      <c r="I24" s="74"/>
-      <c r="J24" s="74"/>
-      <c r="K24" s="75"/>
+      <c r="C24" s="49"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
+      <c r="K24" s="50"/>
     </row>
     <row r="25" spans="2:11" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="42" t="s">
@@ -2117,74 +2117,74 @@
       <c r="K26" s="44"/>
     </row>
     <row r="27" spans="2:11" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="76" t="s">
+      <c r="B27" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="77"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="77"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="77"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="77"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="52"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="52"/>
+      <c r="K27" s="52"/>
     </row>
     <row r="28" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="48" t="s">
+      <c r="B28" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="49"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
-      <c r="K28" s="50"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="64"/>
+      <c r="F28" s="64"/>
+      <c r="G28" s="64"/>
+      <c r="H28" s="64"/>
+      <c r="I28" s="64"/>
+      <c r="J28" s="64"/>
+      <c r="K28" s="65"/>
     </row>
     <row r="29" spans="2:11" ht="54.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="67" t="s">
+      <c r="B29" s="66" t="s">
         <v>54</v>
       </c>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="68"/>
-      <c r="G29" s="68"/>
-      <c r="H29" s="68"/>
-      <c r="I29" s="68"/>
-      <c r="J29" s="68"/>
-      <c r="K29" s="69"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
+      <c r="I29" s="67"/>
+      <c r="J29" s="67"/>
+      <c r="K29" s="68"/>
     </row>
     <row r="30" spans="2:11" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="C30" s="55"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="56"/>
+      <c r="C30" s="76"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
     </row>
     <row r="31" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="63"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="59"/>
     </row>
     <row r="32" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B32" s="21" t="s">
@@ -2201,18 +2201,18 @@
       <c r="K32" s="23"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="65"/>
-      <c r="D33" s="65"/>
-      <c r="E33" s="65"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="65"/>
-      <c r="K33" s="66"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="62"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="42" t="s">
@@ -2243,18 +2243,18 @@
       <c r="K35" s="44"/>
     </row>
     <row r="36" spans="2:11" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="58" t="s">
+      <c r="B36" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="59"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="59"/>
-      <c r="J36" s="59"/>
-      <c r="K36" s="60"/>
+      <c r="C36" s="55"/>
+      <c r="D36" s="55"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+      <c r="H36" s="55"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="56"/>
     </row>
     <row r="37" spans="2:11" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B37" s="42" t="s">
@@ -2313,28 +2313,26 @@
       <c r="K40" s="44"/>
     </row>
     <row r="41" spans="2:11" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="72"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="46"/>
+      <c r="F41" s="46"/>
+      <c r="G41" s="46"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="46"/>
+      <c r="J41" s="46"/>
+      <c r="K41" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="B40:K40"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B37:K37"/>
-    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B30:K30"/>
     <mergeCell ref="D6:I8"/>
     <mergeCell ref="B6:C8"/>
     <mergeCell ref="B34:K34"/>
@@ -2351,11 +2349,13 @@
     <mergeCell ref="B22:K22"/>
     <mergeCell ref="B25:K25"/>
     <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B30:K30"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="B40:K40"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B37:K37"/>
+    <mergeCell ref="B38:K38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2366,8 +2366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:C21"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,16 +2381,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="99" t="s">
+      <c r="A1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="114" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-      <c r="H1" s="101"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="37" t="s">
         <v>66</v>
       </c>
@@ -2399,14 +2399,14 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="28" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="82"/>
-      <c r="B2" s="83"/>
-      <c r="C2" s="83"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="104"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="103"/>
+      <c r="E2" s="117"/>
+      <c r="F2" s="118"/>
+      <c r="G2" s="118"/>
+      <c r="H2" s="119"/>
       <c r="I2" s="39" t="s">
         <v>68</v>
       </c>
@@ -2415,67 +2415,65 @@
       </c>
     </row>
     <row r="3" spans="1:13" s="28" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
-      <c r="B3" s="86"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="105"/>
-      <c r="F3" s="106"/>
-      <c r="G3" s="106"/>
-      <c r="H3" s="107"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="106"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="121"/>
+      <c r="G3" s="121"/>
+      <c r="H3" s="122"/>
       <c r="I3" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="41">
-        <v>46024</v>
-      </c>
+      <c r="J3" s="41"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="113"/>
-      <c r="J5" s="114"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
+      <c r="A6" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="94" t="s">
+      <c r="B6" s="79"/>
+      <c r="C6" s="82" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="96"/>
-      <c r="J6" s="95"/>
+      <c r="D6" s="84"/>
+      <c r="E6" s="84"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="84"/>
+      <c r="I6" s="84"/>
+      <c r="J6" s="83"/>
     </row>
     <row r="7" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+      <c r="A7" s="79" t="s">
         <v>61</v>
       </c>
-      <c r="B7" s="92"/>
-      <c r="C7" s="94" t="s">
+      <c r="B7" s="79"/>
+      <c r="C7" s="82" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="95"/>
+      <c r="D7" s="84"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="84"/>
+      <c r="H7" s="83"/>
       <c r="I7" s="32" t="s">
         <v>18</v>
       </c>
@@ -2484,31 +2482,31 @@
       </c>
     </row>
     <row r="8" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="92"/>
-      <c r="C8" s="94" t="s">
+      <c r="B8" s="79"/>
+      <c r="C8" s="82" t="s">
         <v>79</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="96"/>
-      <c r="H8" s="96"/>
-      <c r="I8" s="96"/>
-      <c r="J8" s="95"/>
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="84"/>
+      <c r="G8" s="84"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="84"/>
+      <c r="J8" s="83"/>
     </row>
     <row r="9" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="92" t="s">
+      <c r="A9" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="94">
+      <c r="B9" s="79"/>
+      <c r="C9" s="82">
         <v>3</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="95"/>
+      <c r="D9" s="84"/>
+      <c r="E9" s="83"/>
       <c r="F9" s="32" t="s">
         <v>21</v>
       </c>
@@ -2518,41 +2516,41 @@
       <c r="H9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="82">
         <v>80</v>
       </c>
-      <c r="J9" s="95"/>
+      <c r="J9" s="83"/>
     </row>
     <row r="10" spans="1:13" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="97" t="s">
+      <c r="A10" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="98"/>
-      <c r="C10" s="94" t="s">
+      <c r="B10" s="113"/>
+      <c r="C10" s="82" t="s">
         <v>77</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="96"/>
-      <c r="G10" s="95"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="84"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="83"/>
       <c r="H10" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="I10" s="94" t="s">
+      <c r="I10" s="82" t="s">
         <v>72</v>
       </c>
-      <c r="J10" s="95"/>
+      <c r="J10" s="83"/>
       <c r="K10" s="5"/>
     </row>
     <row r="11" spans="1:13" s="27" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="124" t="s">
+      <c r="A11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="125"/>
-      <c r="C11" s="108" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="109"/>
+      <c r="D11" s="124"/>
       <c r="E11" s="35" t="s">
         <v>73</v>
       </c>
@@ -2565,81 +2563,81 @@
       <c r="H11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="126"/>
     </row>
     <row r="12" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="118" t="s">
+      <c r="A12" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="B12" s="118"/>
-      <c r="C12" s="119" t="s">
+      <c r="B12" s="92"/>
+      <c r="C12" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="121"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
       <c r="H12" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="I12" s="122">
+      <c r="I12" s="96">
         <v>0.4</v>
       </c>
-      <c r="J12" s="123"/>
+      <c r="J12" s="97"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="88" t="s">
+      <c r="A13" s="107" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="88"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
-      <c r="G13" s="88"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="88"/>
-      <c r="J13" s="88"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="107"/>
+      <c r="G13" s="107"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="107"/>
+      <c r="J13" s="107"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="108" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="90"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
-      <c r="J14" s="91"/>
+      <c r="B14" s="109"/>
+      <c r="C14" s="109"/>
+      <c r="D14" s="109"/>
+      <c r="E14" s="109"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="109"/>
+      <c r="H14" s="109"/>
+      <c r="I14" s="109"/>
+      <c r="J14" s="110"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="79" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
-      <c r="D15" s="93" t="s">
+      <c r="B15" s="79"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="111" t="s">
         <v>78</v>
       </c>
-      <c r="E15" s="93"/>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="I15" s="93"/>
-      <c r="J15" s="93"/>
+      <c r="E15" s="111"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="111"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="111"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -2660,18 +2658,18 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="88" t="s">
+      <c r="A17" s="107" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="88"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="88"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="88"/>
-      <c r="G17" s="88"/>
-      <c r="H17" s="88"/>
-      <c r="I17" s="88"/>
-      <c r="J17" s="88"/>
+      <c r="B17" s="107"/>
+      <c r="C17" s="107"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="107"/>
+      <c r="H17" s="107"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
@@ -2692,65 +2690,65 @@
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" s="28" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="78" t="s">
+      <c r="A19" s="91" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="78"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="78" t="s">
+      <c r="B19" s="91"/>
+      <c r="C19" s="91"/>
+      <c r="D19" s="91" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="117" t="s">
+      <c r="E19" s="90" t="s">
         <v>30</v>
       </c>
-      <c r="F19" s="117"/>
-      <c r="G19" s="78" t="s">
+      <c r="F19" s="90"/>
+      <c r="G19" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="78" t="s">
+      <c r="H19" s="91" t="s">
         <v>34</v>
       </c>
-      <c r="I19" s="78" t="s">
+      <c r="I19" s="91" t="s">
         <v>35</v>
       </c>
-      <c r="J19" s="78" t="s">
+      <c r="J19" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="K19" s="78" t="s">
+      <c r="K19" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="L19" s="78" t="s">
+      <c r="L19" s="91" t="s">
         <v>38</v>
       </c>
-      <c r="M19" s="78" t="s">
+      <c r="M19" s="91" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="30" customFormat="1" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="78"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="78"/>
+      <c r="A20" s="91"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="91"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="26" t="s">
         <v>31</v>
       </c>
       <c r="F20" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="G20" s="78"/>
-      <c r="H20" s="78"/>
-      <c r="I20" s="78"/>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
-      <c r="L20" s="78"/>
-      <c r="M20" s="78"/>
+      <c r="G20" s="91"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="91"/>
+      <c r="J20" s="91"/>
+      <c r="K20" s="91"/>
+      <c r="L20" s="91"/>
+      <c r="M20" s="91"/>
     </row>
     <row r="21" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="126" t="s">
+      <c r="A21" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="126"/>
-      <c r="C21" s="126"/>
+      <c r="B21" s="78"/>
+      <c r="C21" s="78"/>
       <c r="D21" s="29" t="s">
         <v>110</v>
       </c>
@@ -2783,11 +2781,11 @@
       </c>
     </row>
     <row r="22" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="126" t="s">
+      <c r="A22" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="B22" s="126"/>
-      <c r="C22" s="126"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
       <c r="D22" s="29" t="s">
         <v>80</v>
       </c>
@@ -2820,11 +2818,11 @@
       </c>
     </row>
     <row r="23" spans="1:13" s="30" customFormat="1" ht="314.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="126" t="s">
+      <c r="A23" s="78" t="s">
         <v>116</v>
       </c>
-      <c r="B23" s="126"/>
-      <c r="C23" s="126"/>
+      <c r="B23" s="78"/>
+      <c r="C23" s="78"/>
       <c r="D23" s="29" t="s">
         <v>81</v>
       </c>
@@ -2857,11 +2855,11 @@
       </c>
     </row>
     <row r="24" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="126" t="s">
+      <c r="A24" s="78" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="126"/>
-      <c r="C24" s="126"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
       <c r="D24" s="29" t="s">
         <v>82</v>
       </c>
@@ -2894,11 +2892,11 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
+      <c r="B25" s="78"/>
+      <c r="C25" s="78"/>
       <c r="D25" s="29" t="s">
         <v>83</v>
       </c>
@@ -2931,11 +2929,11 @@
       </c>
     </row>
     <row r="26" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="126" t="s">
+      <c r="A26" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="126"/>
-      <c r="C26" s="126"/>
+      <c r="B26" s="78"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="29" t="s">
         <v>84</v>
       </c>
@@ -2968,11 +2966,11 @@
       </c>
     </row>
     <row r="27" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="126" t="s">
+      <c r="A27" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="126"/>
-      <c r="C27" s="126"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="29" t="s">
         <v>95</v>
       </c>
@@ -3005,11 +3003,11 @@
       </c>
     </row>
     <row r="28" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="126" t="s">
+      <c r="A28" s="78" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="126"/>
-      <c r="C28" s="126"/>
+      <c r="B28" s="78"/>
+      <c r="C28" s="78"/>
       <c r="D28" s="29" t="s">
         <v>94</v>
       </c>
@@ -3042,11 +3040,11 @@
       </c>
     </row>
     <row r="29" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="126" t="s">
+      <c r="A29" s="78" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
+      <c r="B29" s="78"/>
+      <c r="C29" s="78"/>
       <c r="D29" s="29" t="s">
         <v>93</v>
       </c>
@@ -3079,11 +3077,11 @@
       </c>
     </row>
     <row r="30" spans="1:13" s="30" customFormat="1" ht="144.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="126" t="s">
+      <c r="A30" s="78" t="s">
         <v>123</v>
       </c>
-      <c r="B30" s="126"/>
-      <c r="C30" s="126"/>
+      <c r="B30" s="78"/>
+      <c r="C30" s="78"/>
       <c r="D30" s="29" t="s">
         <v>108</v>
       </c>
@@ -3116,42 +3114,42 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="115" t="s">
+      <c r="A31" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="116" t="s">
+      <c r="B31" s="88"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89" t="s">
         <v>109</v>
       </c>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
+      <c r="E31" s="89"/>
+      <c r="F31" s="89"/>
+      <c r="G31" s="89"/>
+      <c r="H31" s="89"/>
+      <c r="I31" s="89"/>
+      <c r="J31" s="89"/>
       <c r="K31" s="31"/>
       <c r="L31" s="31"/>
       <c r="M31" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:G10"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="L19:L20"/>
+    <mergeCell ref="M19:M20"/>
+    <mergeCell ref="A1:D3"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A17:J17"/>
+    <mergeCell ref="A14:J14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:J15"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="E1:H3"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="I11:J11"/>
     <mergeCell ref="A5:J5"/>
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="D31:J31"/>
@@ -3168,22 +3166,22 @@
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="C8:J8"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="L19:L20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="A1:D3"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A17:J17"/>
-    <mergeCell ref="A14:J14"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:J15"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E1:H3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:G10"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A30:C30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
